--- a/collected.xlsx
+++ b/collected.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>nombres</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>rick grimes</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>maestro</t>
+  </si>
+  <si>
+    <t>sodimac</t>
   </si>
 </sst>
 </file>
@@ -421,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,28 +449,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -472,28 +484,31 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -504,28 +519,31 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -536,24 +554,27 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
       <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/collected.xlsx
+++ b/collected.xlsx
@@ -24,99 +24,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
-  <si>
-    <t>nombres</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>horas</t>
-  </si>
-  <si>
-    <t>curso</t>
-  </si>
-  <si>
-    <t>john doe</t>
-  </si>
-  <si>
-    <t>jd.4@test.com</t>
-  </si>
-  <si>
-    <t>ferreteria</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>jane ross</t>
-  </si>
-  <si>
-    <t>jr.5@test.com</t>
-  </si>
-  <si>
-    <t>pintura</t>
-  </si>
-  <si>
-    <t>wb.6@test.com</t>
-  </si>
-  <si>
-    <t>electricista</t>
-  </si>
-  <si>
-    <t>¿como a?</t>
-  </si>
-  <si>
-    <t>¿que b?</t>
-  </si>
-  <si>
-    <t>¿como c?</t>
-  </si>
-  <si>
-    <t>¿cual d?</t>
-  </si>
-  <si>
-    <t>¿como e?</t>
-  </si>
-  <si>
-    <t>¿que f?</t>
-  </si>
-  <si>
-    <t>rick grimes</t>
-  </si>
-  <si>
-    <t>marca</t>
-  </si>
-  <si>
-    <t>maestro</t>
-  </si>
-  <si>
-    <t>sodimac</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Hora de inicio</t>
+  </si>
+  <si>
+    <t>Hora de finalización</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Total de puntos</t>
+  </si>
+  <si>
+    <t>Comentarios del cuestionario</t>
+  </si>
+  <si>
+    <t>Hora de publicación de la calificación</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>Puntos: Nombres</t>
+  </si>
+  <si>
+    <t>Comentarios: Nombres</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Puntos: Apellidos</t>
+  </si>
+  <si>
+    <t>Comentarios: Apellidos</t>
+  </si>
+  <si>
+    <t>Correo electrónico2</t>
+  </si>
+  <si>
+    <t>Puntos: Correo electrónico</t>
+  </si>
+  <si>
+    <t>Comentarios: Correo electrónico</t>
+  </si>
+  <si>
+    <t>Especialidad</t>
+  </si>
+  <si>
+    <t>Puntos: Especialidad</t>
+  </si>
+  <si>
+    <t>Comentarios: Especialidad</t>
+  </si>
+  <si>
+    <t>¿Por qué es importante que los especialistas y maestros de la construcción cuenten con un protocolo de salud y seguridad?</t>
+  </si>
+  <si>
+    <t>Puntos: ¿Por qué es importante que los especialistas y maestros de la construcción cuenten con un protocolo de salud y seguridad?</t>
+  </si>
+  <si>
+    <t>Comentarios: ¿Por qué es importante que los especialistas y maestros de la construcción cuenten con un protocolo de salud y seguridad?</t>
+  </si>
+  <si>
+    <t>Marque la opción que NO ES CORRECTA respecto a las recomendaciones que debe hacer a su cliente previo al inicio de los trabajos</t>
+  </si>
+  <si>
+    <t>Puntos: Marque la opción que NO ES CORRECTA respecto a las recomendaciones que debe hacer a su cliente previo al inicio de los trabajos</t>
+  </si>
+  <si>
+    <t>Comentarios: Marque la opción que NO ES CORRECTA respecto a las recomendaciones que debe hacer a su cliente previo al inicio de los trabajos</t>
+  </si>
+  <si>
+    <t>Marque la opción que muestra los elementos que deben incluir tu Kit de Prevención y Desinfección de Respaldo</t>
+  </si>
+  <si>
+    <t>Puntos: Marque la opción que muestra los elementos que deben incluir tu Kit de Prevención y Desinfección de Respaldo</t>
+  </si>
+  <si>
+    <t>Comentarios: Marque la opción que muestra los elementos que deben incluir tu Kit de Prevención y Desinfección de Respaldo</t>
+  </si>
+  <si>
+    <t>En el actual contexto de COVID-19, ¿por qué es importante la Protección Colectiva y el aislamiento del espacio?</t>
+  </si>
+  <si>
+    <t>Puntos: En el actual contexto de COVID-19, ¿por qué es importante la Protección Colectiva y el aislamiento del espacio?</t>
+  </si>
+  <si>
+    <t>Comentarios: En el actual contexto de COVID-19, ¿por qué es importante la Protección Colectiva y el aislamiento del espacio?</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los pasos para construir un elevator pitch?</t>
+  </si>
+  <si>
+    <t>Puntos: ¿Cuáles son los pasos para construir un elevator pitch?</t>
+  </si>
+  <si>
+    <t>Comentarios: ¿Cuáles son los pasos para construir un elevator pitch?</t>
+  </si>
+  <si>
+    <t>¿Cuáles son las claves de una comunicación exitosa?</t>
+  </si>
+  <si>
+    <t>Puntos: ¿Cuáles son las claves de una comunicación exitosa?</t>
+  </si>
+  <si>
+    <t>Comentarios: ¿Cuáles son las claves de una comunicación exitosa?</t>
+  </si>
+  <si>
+    <t>anonymous</t>
+  </si>
+  <si>
+    <t>Cri cri</t>
+  </si>
+  <si>
+    <t>Cri Cri</t>
+  </si>
+  <si>
+    <t>cricri@test@gmail.com</t>
+  </si>
+  <si>
+    <t>Gasfitería</t>
+  </si>
+  <si>
+    <t>Para cuidar al cliente</t>
+  </si>
+  <si>
+    <t>Retire los alimentos de la zona de trabajo</t>
+  </si>
+  <si>
+    <t>Alcohol al 70%, Alcohol en gel, toalla desinfectante desechable, respirador N95</t>
+  </si>
+  <si>
+    <t>b. Las barreras físicas contribuyen al distanciamiento social</t>
+  </si>
+  <si>
+    <t>Resalta tus debilidades, define tu objetivo, resalta quién eres</t>
+  </si>
+  <si>
+    <t>La frecuencia de los mensajes</t>
+  </si>
+  <si>
+    <t>Melisa</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>melisa.p.g.lima@gmail.com</t>
+  </si>
+  <si>
+    <t>Electricidad</t>
+  </si>
+  <si>
+    <t>Todas las anteriores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay ninguna recomendación que hacerle al cliente </t>
+  </si>
+  <si>
+    <t>e. B y D</t>
+  </si>
+  <si>
+    <t>Definir quién eres, definir el público objetivo, resaltar tu propuesta de valor</t>
+  </si>
+  <si>
+    <t>Todos los anteriores</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Del Aguila Medina</t>
+  </si>
+  <si>
+    <t>c.delaguilamedina@gmail.com</t>
+  </si>
+  <si>
+    <t>Servicios Generales</t>
+  </si>
+  <si>
+    <t>blalabla</t>
+  </si>
+  <si>
+    <t>lalala</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>a. Para que no haya ningún accidente</t>
+  </si>
+  <si>
+    <t>Ninguna de las anteriores</t>
+  </si>
+  <si>
+    <t>Elegir los canales adecuados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,22 +263,133 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="38">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -165,6 +400,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AL5" totalsRowShown="0">
+  <autoFilter ref="A1:AL5"/>
+  <tableColumns count="38">
+    <tableColumn id="1" name="ID" dataDxfId="37"/>
+    <tableColumn id="2" name="Hora de inicio" dataDxfId="36"/>
+    <tableColumn id="3" name="Hora de finalización" dataDxfId="35"/>
+    <tableColumn id="4" name="Correo electrónico" dataDxfId="34"/>
+    <tableColumn id="5" name="Nombre" dataDxfId="33"/>
+    <tableColumn id="6" name="Total de puntos" dataDxfId="32"/>
+    <tableColumn id="7" name="Comentarios del cuestionario" dataDxfId="31"/>
+    <tableColumn id="8" name="Hora de publicación de la calificación" dataDxfId="30"/>
+    <tableColumn id="9" name="Nombres" dataDxfId="29"/>
+    <tableColumn id="10" name="Puntos: Nombres" dataDxfId="28"/>
+    <tableColumn id="11" name="Comentarios: Nombres" dataDxfId="27"/>
+    <tableColumn id="12" name="Apellidos" dataDxfId="26"/>
+    <tableColumn id="13" name="Puntos: Apellidos" dataDxfId="25"/>
+    <tableColumn id="14" name="Comentarios: Apellidos" dataDxfId="24"/>
+    <tableColumn id="15" name="Correo electrónico2" dataDxfId="23"/>
+    <tableColumn id="16" name="Puntos: Correo electrónico" dataDxfId="22"/>
+    <tableColumn id="17" name="Comentarios: Correo electrónico" dataDxfId="21"/>
+    <tableColumn id="18" name="Especialidad" dataDxfId="20"/>
+    <tableColumn id="19" name="Puntos: Especialidad" dataDxfId="19"/>
+    <tableColumn id="20" name="Comentarios: Especialidad" dataDxfId="18"/>
+    <tableColumn id="21" name="¿Por qué es importante que los especialistas y maestros de la construcción cuenten con un protocolo de salud y seguridad?" dataDxfId="17"/>
+    <tableColumn id="22" name="Puntos: ¿Por qué es importante que los especialistas y maestros de la construcción cuenten con un protocolo de salud y seguridad?" dataDxfId="16"/>
+    <tableColumn id="23" name="Comentarios: ¿Por qué es importante que los especialistas y maestros de la construcción cuenten con un protocolo de salud y seguridad?" dataDxfId="15"/>
+    <tableColumn id="24" name="Marque la opción que NO ES CORRECTA respecto a las recomendaciones que debe hacer a su cliente previo al inicio de los trabajos" dataDxfId="14"/>
+    <tableColumn id="25" name="Puntos: Marque la opción que NO ES CORRECTA respecto a las recomendaciones que debe hacer a su cliente previo al inicio de los trabajos" dataDxfId="13"/>
+    <tableColumn id="26" name="Comentarios: Marque la opción que NO ES CORRECTA respecto a las recomendaciones que debe hacer a su cliente previo al inicio de los trabajos" dataDxfId="12"/>
+    <tableColumn id="27" name="Marque la opción que muestra los elementos que deben incluir tu Kit de Prevención y Desinfección de Respaldo" dataDxfId="11"/>
+    <tableColumn id="28" name="Puntos: Marque la opción que muestra los elementos que deben incluir tu Kit de Prevención y Desinfección de Respaldo" dataDxfId="10"/>
+    <tableColumn id="29" name="Comentarios: Marque la opción que muestra los elementos que deben incluir tu Kit de Prevención y Desinfección de Respaldo" dataDxfId="9"/>
+    <tableColumn id="30" name="En el actual contexto de COVID-19, ¿por qué es importante la Protección Colectiva y el aislamiento del espacio?" dataDxfId="8"/>
+    <tableColumn id="31" name="Puntos: En el actual contexto de COVID-19, ¿por qué es importante la Protección Colectiva y el aislamiento del espacio?" dataDxfId="7"/>
+    <tableColumn id="32" name="Comentarios: En el actual contexto de COVID-19, ¿por qué es importante la Protección Colectiva y el aislamiento del espacio?" dataDxfId="6"/>
+    <tableColumn id="33" name="¿Cuáles son los pasos para construir un elevator pitch?" dataDxfId="5"/>
+    <tableColumn id="34" name="Puntos: ¿Cuáles son los pasos para construir un elevator pitch?" dataDxfId="4"/>
+    <tableColumn id="35" name="Comentarios: ¿Cuáles son los pasos para construir un elevator pitch?" dataDxfId="3"/>
+    <tableColumn id="36" name="¿Cuáles son las claves de una comunicación exitosa?" dataDxfId="2"/>
+    <tableColumn id="37" name="Puntos: ¿Cuáles son las claves de una comunicación exitosa?" dataDxfId="1"/>
+    <tableColumn id="38" name="Comentarios: ¿Cuáles son las claves de una comunicación exitosa?" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,161 +712,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44015.4442361111</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44015.445567129602</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44015.455034722203</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44015.456990740699</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44015.561851851897</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44015.571608796301</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL4" s="1"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44019.418993055602</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44019.445486111101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL5" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>